--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00082300\OneDrive - ENERCON\Dokumente\MeusProjetos\Atividades_Controle\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Numero SAP</t>
   </si>
@@ -45,6 +40,12 @@
     <t>171717</t>
   </si>
   <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
     <t>Montagem</t>
   </si>
   <si>
@@ -66,6 +67,12 @@
     <t>18/03/2025 15:04:38</t>
   </si>
   <si>
+    <t>18/03/2025 15:10:59</t>
+  </si>
+  <si>
+    <t>18/03/2025 15:11:10</t>
+  </si>
+  <si>
     <t>18/03/2025 15:05:33</t>
   </si>
   <si>
@@ -73,13 +80,19 @@
   </si>
   <si>
     <t>18/03/2025 15:05:35</t>
+  </si>
+  <si>
+    <t>18/03/2025 15:11:02</t>
+  </si>
+  <si>
+    <t>18/03/2025 15:11:16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,19 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,20 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,60 +463,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Numero SAP</t>
   </si>
@@ -46,6 +46,12 @@
     <t>1010</t>
   </si>
   <si>
+    <t>83612</t>
+  </si>
+  <si>
+    <t>88109</t>
+  </si>
+  <si>
     <t>Montagem</t>
   </si>
   <si>
@@ -73,6 +79,15 @@
     <t>18/03/2025 15:11:10</t>
   </si>
   <si>
+    <t>18/03/2025 15:21:42</t>
+  </si>
+  <si>
+    <t>18/03/2025 15:23:30</t>
+  </si>
+  <si>
+    <t>18/03/2025 16:02:16</t>
+  </si>
+  <si>
     <t>18/03/2025 15:05:33</t>
   </si>
   <si>
@@ -86,6 +101,15 @@
   </si>
   <si>
     <t>18/03/2025 15:11:16</t>
+  </si>
+  <si>
+    <t>18/03/2025 15:21:58</t>
+  </si>
+  <si>
+    <t>18/03/2025 16:02:20</t>
+  </si>
+  <si>
+    <t>18/03/2025 16:02:22</t>
   </si>
 </sst>
 </file>
@@ -443,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -482,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -496,13 +520,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -510,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -524,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -538,13 +562,55 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -31,27 +31,6 @@
     <t>82300</t>
   </si>
   <si>
-    <t>82000</t>
-  </si>
-  <si>
-    <t>88190</t>
-  </si>
-  <si>
-    <t>171717</t>
-  </si>
-  <si>
-    <t>8810</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>83612</t>
-  </si>
-  <si>
-    <t>88109</t>
-  </si>
-  <si>
     <t>Montagem</t>
   </si>
   <si>
@@ -61,6 +40,12 @@
     <t>Acabamento</t>
   </si>
   <si>
+    <t>LECTRA 1</t>
+  </si>
+  <si>
+    <t>LECTRA 2</t>
+  </si>
+  <si>
     <t>18/03/2025 14:58:36</t>
   </si>
   <si>
@@ -88,6 +73,15 @@
     <t>18/03/2025 16:02:16</t>
   </si>
   <si>
+    <t>18/03/2025 17:01:03</t>
+  </si>
+  <si>
+    <t>18/03/2025 17:04:06</t>
+  </si>
+  <si>
+    <t>18/03/2025 17:04:16</t>
+  </si>
+  <si>
     <t>18/03/2025 15:05:33</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>18/03/2025 16:02:22</t>
+  </si>
+  <si>
+    <t>18/03/2025 17:01:06</t>
+  </si>
+  <si>
+    <t>18/03/2025 17:04:07</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,129 +488,168 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>82300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>82000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>88190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>171717</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>8810</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>83612</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>83612</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>88109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>85000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>8000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Numero SAP</t>
   </si>
@@ -31,6 +31,33 @@
     <t>82300</t>
   </si>
   <si>
+    <t>82000</t>
+  </si>
+  <si>
+    <t>88190</t>
+  </si>
+  <si>
+    <t>171717</t>
+  </si>
+  <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>83612</t>
+  </si>
+  <si>
+    <t>88109</t>
+  </si>
+  <si>
+    <t>85000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
     <t>Montagem</t>
   </si>
   <si>
@@ -110,6 +137,9 @@
   </si>
   <si>
     <t>18/03/2025 17:04:07</t>
+  </si>
+  <si>
+    <t>19/03/2025 08:04:08</t>
   </si>
 </sst>
 </file>
@@ -488,157 +518,157 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>82300</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>82000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>88190</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>171717</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>8810</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1010</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>83612</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>83612</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>88109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>85000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>8000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -646,10 +676,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Numero SAP</t>
   </si>
@@ -58,6 +58,24 @@
     <t>8000</t>
   </si>
   <si>
+    <t>88100</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>86063</t>
+  </si>
+  <si>
+    <t>85858</t>
+  </si>
+  <si>
+    <t>8992946</t>
+  </si>
+  <si>
+    <t>825000</t>
+  </si>
+  <si>
     <t>Montagem</t>
   </si>
   <si>
@@ -109,6 +127,39 @@
     <t>18/03/2025 17:04:16</t>
   </si>
   <si>
+    <t>19/03/2025 12:23:43</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:23:51</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:56:10</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:56:23</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:56:28</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:56:32</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:56:35</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:07:51</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:08:59</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:09:05</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:13:13</t>
+  </si>
+  <si>
     <t>18/03/2025 15:05:33</t>
   </si>
   <si>
@@ -140,6 +191,33 @@
   </si>
   <si>
     <t>19/03/2025 08:04:08</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:50:53</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:50:54</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:58:11</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:58:12</t>
+  </si>
+  <si>
+    <t>19/03/2025 12:58:13</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:07:53</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:09:00</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:09:07</t>
+  </si>
+  <si>
+    <t>19/03/2025 13:14:17</t>
   </si>
 </sst>
 </file>
@@ -497,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -536,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -550,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -564,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -578,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -592,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -606,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -620,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -634,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -648,13 +726,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -662,13 +740,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,13 +754,167 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Numero SAP</t>
   </si>
@@ -160,6 +160,9 @@
     <t>19/03/2025 13:13:13</t>
   </si>
   <si>
+    <t>20/03/2025 09:01:39</t>
+  </si>
+  <si>
     <t>18/03/2025 15:05:33</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>19/03/2025 13:14:17</t>
+  </si>
+  <si>
+    <t>20/03/2025 09:01:42</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -620,7 +626,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -634,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -648,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -662,7 +668,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -676,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -690,7 +696,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -704,7 +710,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -718,7 +724,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -732,7 +738,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -746,7 +752,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -760,7 +766,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -774,7 +780,7 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -788,7 +794,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -802,7 +808,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -816,7 +822,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -830,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -844,7 +850,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -858,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -872,7 +878,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -886,7 +892,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -900,7 +906,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -914,7 +920,21 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
